--- a/第三模块-面向对象编程2.0版佩奇/day21 网络编程（下）/第三模块 网盘系统（参考代码）/pan/db/users.xlsx
+++ b/第三模块-面向对象编程2.0版佩奇/day21 网络编程（下）/第三模块 网盘系统（参考代码）/pan/db/users.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="233" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -551,19 +551,36 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>root</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>666</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>2021-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-09-10</t>
         </is>
       </c>
     </row>
